--- a/docs/Dicionário.xlsx
+++ b/docs/Dicionário.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MBA\projetofinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MBA\flashbus\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D20D0E-8CC0-4707-AE71-108362154389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84382F68-7F52-4EEE-95E2-D92D5DCD0687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{772AA735-FA68-43FC-AF63-05271DAF9BCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{772AA735-FA68-43FC-AF63-05271DAF9BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="SPTRANS" sheetId="1" r:id="rId1"/>
@@ -6611,18 +6611,18 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7280,13 +7280,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="7" t="s">
         <v>420</v>
       </c>
@@ -7295,11 +7295,11 @@
       <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -7425,11 +7425,11 @@
       <c r="A15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
@@ -7597,11 +7597,11 @@
       <c r="A29" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -7719,11 +7719,11 @@
       <c r="A39" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
@@ -7807,11 +7807,11 @@
       <c r="A47" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
@@ -7899,11 +7899,11 @@
       <c r="A55" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
@@ -8033,11 +8033,11 @@
       <c r="A66" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
@@ -8127,11 +8127,11 @@
       <c r="A74" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
@@ -8377,11 +8377,11 @@
       <c r="A95" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
@@ -8593,11 +8593,11 @@
       <c r="A113" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
@@ -8770,7 +8770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D6771-4626-434A-BE75-D2777FEF56EF}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9289,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDF3470-55E8-4C68-9439-14493E096CCB}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C16:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9543,7 +9543,7 @@
       <c r="B23" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="51" t="s">
         <v>172</v>
       </c>
       <c r="D23" s="25"/>
